--- a/sales summary/Sales Account Summary.xlsx
+++ b/sales summary/Sales Account Summary.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{480588D9-9859-4057-9973-D495AAF727DE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="hidden" r:id="rId1"/>
@@ -14,7 +13,7 @@
     <sheet name="Expenses" sheetId="3" state="hidden" r:id="rId4"/>
     <sheet name="Debts" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
   <si>
     <t>S.No</t>
   </si>
@@ -248,11 +247,14 @@
   <si>
     <t>Sun glasses from Aliexpress</t>
   </si>
+  <si>
+    <t>Sales from Sameera</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,7 +600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1462,11 +1464,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,13 +1701,30 @@
         <v>66</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14">
+        <v>1600</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1717,7 +1736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1889,7 +1908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
